--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0E80A1-5205-4790-92E5-273C222CD116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23FE956-EBA0-4107-ACBD-BC4FD75FD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -780,13 +780,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S5aH4,S5c1013h16,S5d1128h18,S6aH3,S6aH4,S3b0302h18,S5c1013h09,S6aH5,S4aH2,S5c1013h18,S5d1128h10,S5d1128h11,S1aH5,S2aH4,S2aH5,S3b0302h14,S5aH2,S5aH5,S6aH2,S4aH5,S5c1013h07,S3b0302h07,S3b0302h08,S1aH3,S3b0302h12,S3b0302h17,S5c1013h13,S1aH2,S2aH3,S3aH6,S5aH6,S5c1013h10,S5c1013h15,S5d1128h09,S5d1128h16,S6aH6,S2aH6,S3aH5,S3b0302h09,S5aH3,S5c1013h12,S3b0302h16,S5d1128h17,S1aH6,S5c1013h08,S5c1013h11,S5d1128h12,S5c1013h17,S3aH2,S5d1128h15,S3aH3,S3b0302h10,S3b0302h15,S5d1128h07,S5d1128h13,S3aH4,S3b0302h11,S4aH3,S4aH4,S5d1128h14,S1aH4,S2aH2,S3b0302h13,S4aH6,S5c1013h14,S5d1128h08</t>
+    <t>S4aH5,S5c1013h07,S1aH3,S3b0302h12,S3b0302h17,S5c1013h13,S4aH2,S5c1013h18,S5d1128h10,S5d1128h11,S3aH2,S5d1128h15,S2aH6,S3aH5,S3b0302h09,S5aH3,S5c1013h12,S1aH6,S5c1013h08,S5c1013h11,S5d1128h12,S1aH4,S2aH2,S3b0302h13,S4aH6,S5c1013h14,S5d1128h08,S3b0302h07,S3b0302h08,S1aH2,S2aH3,S3aH6,S5aH6,S5c1013h10,S5c1013h15,S5d1128h09,S5d1128h16,S6aH6,S1aH5,S2aH4,S2aH5,S3b0302h14,S5aH2,S5aH5,S6aH2,S5aH4,S5c1013h16,S5d1128h18,S6aH3,S6aH4,S3aH3,S3b0302h10,S3b0302h15,S5d1128h07,S5d1128h13,S3aH4,S3b0302h11,S4aH3,S4aH4,S5d1128h14,S3b0302h18,S5c1013h09,S6aH5,S3b0302h16,S5d1128h17,S5c1013h17</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S3b0302h23,S3b0302h24,S5d1128h21,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5d1128h06,S2aH1,S3aH7,S5aH8,S5c1013h02,S5c1013h23,S5c1013h19,S5d1128h05,S3b0302h02,S5d1128h04,S5d1128h20,S5d1128h23,S3aH1,S5d1128h19,S5d1128h24,S1aH7,S3b0302h20,S4aH7,S5aH7,S5c1013h24,S5c1013h01,S5d1128h22,S1aH8,S3b0302h05,S5aH1,S5c1013h20,S6aH7,S2aH8,S3b0302h04,S5d1128h01,S6aH8,S1aH1,S2aH7,S3b0302h06,S3b0302h21,S3aH8,S3b0302h01,S5c1013h06,S5d1128h03,S3b0302h19,S5c1013h22,S5d1128h02,S3b0302h03,S3b0302h22,S4aH1,S5c1013h03,S6aH1</t>
+    <t>S3b0302h02,S5d1128h04,S5d1128h20,S5d1128h23,S1aH7,S3b0302h20,S4aH7,S5aH7,S5c1013h24,S2aH1,S3aH7,S5aH8,S5c1013h02,S5c1013h23,S3aH8,S3b0302h01,S1aH8,S3b0302h05,S5aH1,S5c1013h20,S6aH7,S3b0302h04,S5d1128h01,S6aH8,S3b0302h03,S3b0302h22,S4aH1,S5c1013h03,S6aH1,S3aH1,S5d1128h19,S5d1128h24,S5c1013h01,S5d1128h22,S5c1013h19,S5d1128h05,S3b0302h23,S3b0302h24,S5d1128h21,S5c1013h06,S5d1128h03,S3b0302h19,S5c1013h22,S5d1128h02,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5d1128h06,S2aH8,S1aH1,S2aH7,S3b0302h06,S3b0302h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S3b0302h23,S3b0302h24,S5d1128h21,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5d1128h06,S2aH1,S3aH7,S5aH8,S5c1013h02,S5c1013h23,S5c1013h19,S5d1128h05,S3b0302h02,S5d1128h04,S5d1128h20,S5d1128h23,S3aH1,S5d1128h19,S5d1128h24,S1aH7,S3b0302h20,S4aH7,S5aH7,S5c1013h24,S5c1013h01,S5d1128h22,S1aH8,S3b0302h05,S5aH1,S5c1013h20,S6aH7,S2aH8,S3b0302h04,S5d1128h01,S6aH8,S1aH1,S2aH7,S3b0302h06,S3b0302h21,S3aH8,S3b0302h01,S5c1013h06,S5d1128h03,S3b0302h19,S5c1013h22,S5d1128h02,S3b0302h03,S3b0302h22,S4aH1,S5c1013h03,S6aH1</v>
+        <v>S3b0302h02,S5d1128h04,S5d1128h20,S5d1128h23,S1aH7,S3b0302h20,S4aH7,S5aH7,S5c1013h24,S2aH1,S3aH7,S5aH8,S5c1013h02,S5c1013h23,S3aH8,S3b0302h01,S1aH8,S3b0302h05,S5aH1,S5c1013h20,S6aH7,S3b0302h04,S5d1128h01,S6aH8,S3b0302h03,S3b0302h22,S4aH1,S5c1013h03,S6aH1,S3aH1,S5d1128h19,S5d1128h24,S5c1013h01,S5d1128h22,S5c1013h19,S5d1128h05,S3b0302h23,S3b0302h24,S5d1128h21,S5c1013h06,S5d1128h03,S3b0302h19,S5c1013h22,S5d1128h02,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5d1128h06,S2aH8,S1aH1,S2aH7,S3b0302h06,S3b0302h21</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S5aH4,S5c1013h16,S5d1128h18,S6aH3,S6aH4,S3b0302h18,S5c1013h09,S6aH5,S4aH2,S5c1013h18,S5d1128h10,S5d1128h11,S1aH5,S2aH4,S2aH5,S3b0302h14,S5aH2,S5aH5,S6aH2,S4aH5,S5c1013h07,S3b0302h07,S3b0302h08,S1aH3,S3b0302h12,S3b0302h17,S5c1013h13,S1aH2,S2aH3,S3aH6,S5aH6,S5c1013h10,S5c1013h15,S5d1128h09,S5d1128h16,S6aH6,S2aH6,S3aH5,S3b0302h09,S5aH3,S5c1013h12,S3b0302h16,S5d1128h17,S1aH6,S5c1013h08,S5c1013h11,S5d1128h12,S5c1013h17,S3aH2,S5d1128h15,S3aH3,S3b0302h10,S3b0302h15,S5d1128h07,S5d1128h13,S3aH4,S3b0302h11,S4aH3,S4aH4,S5d1128h14,S1aH4,S2aH2,S3b0302h13,S4aH6,S5c1013h14,S5d1128h08</v>
+        <v>S4aH5,S5c1013h07,S1aH3,S3b0302h12,S3b0302h17,S5c1013h13,S4aH2,S5c1013h18,S5d1128h10,S5d1128h11,S3aH2,S5d1128h15,S2aH6,S3aH5,S3b0302h09,S5aH3,S5c1013h12,S1aH6,S5c1013h08,S5c1013h11,S5d1128h12,S1aH4,S2aH2,S3b0302h13,S4aH6,S5c1013h14,S5d1128h08,S3b0302h07,S3b0302h08,S1aH2,S2aH3,S3aH6,S5aH6,S5c1013h10,S5c1013h15,S5d1128h09,S5d1128h16,S6aH6,S1aH5,S2aH4,S2aH5,S3b0302h14,S5aH2,S5aH5,S6aH2,S5aH4,S5c1013h16,S5d1128h18,S6aH3,S6aH4,S3aH3,S3b0302h10,S3b0302h15,S5d1128h07,S5d1128h13,S3aH4,S3b0302h11,S4aH3,S4aH4,S5d1128h14,S3b0302h18,S5c1013h09,S6aH5,S3b0302h16,S5d1128h17,S5c1013h17</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -1437,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2979D5A5-905D-4FB4-BE88-DB7BB7C31DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD253B72-B1FD-413D-9035-4293D1296E21}">
   <dimension ref="A9:AM250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1663,7 +1663,7 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.11644615677723914</v>
+        <v>0.11644615677723913</v>
       </c>
       <c r="AM11" t="s">
         <v>254</v>
@@ -1755,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="AL12">
-        <v>0.11181015686191495</v>
+        <v>0.11181015686191494</v>
       </c>
       <c r="AM12" t="s">
         <v>254</v>
@@ -1844,10 +1844,10 @@
         <v>4.9864854453449015E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AL13">
-        <v>0.21508075954190395</v>
+        <v>9.2097631194563823E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>254</v>
@@ -1936,10 +1936,10 @@
         <v>0.15832017615902494</v>
       </c>
       <c r="AK14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL14">
-        <v>0.1251381273947374</v>
+        <v>0.53942716822964065</v>
       </c>
       <c r="AM14" t="s">
         <v>254</v>
@@ -2022,10 +2022,10 @@
         <v>0.15567027243114007</v>
       </c>
       <c r="AK15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL15">
-        <v>0.53942716822964087</v>
+        <v>0.12513812739473737</v>
       </c>
       <c r="AM15" t="s">
         <v>254</v>
@@ -2108,10 +2108,10 @@
         <v>0.15499617244472663</v>
       </c>
       <c r="AK16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AL16">
-        <v>9.2097631194563823E-2</v>
+        <v>0.21508075954190392</v>
       </c>
       <c r="AM16" t="s">
         <v>254</v>
